--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\HSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\TX\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5882C-1F7E-4983-B15B-A6C39C4FBEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{145DC016-F886-47AA-947C-AAE5C92391D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1890" windowWidth="24090" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
+    <workbookView xWindow="1170" yWindow="375" windowWidth="13680" windowHeight="17025" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>HSR Household Savings Rate</t>
   </si>
@@ -111,6 +111,9 @@
   <si>
     <t>pandemic in early 2020.</t>
   </si>
+  <si>
+    <t>Texas</t>
+  </si>
 </sst>
 </file>
 
@@ -119,7 +122,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -175,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -185,7 +188,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,18 +505,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53E62A-DC55-435E-84B0-0337EC6CDF03}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="8">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,57 +530,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -593,7 +603,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0689169-21E6-4EF2-964C-014C1F814EBE}">
   <dimension ref="A1:B751"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648:XFD648"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6583,7 +6595,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6600,8 +6614,8 @@
         <v>11</v>
       </c>
       <c r="B2" s="7">
-        <f>AVERAGE(Data!B504:B743)/100</f>
-        <v>6.0595833333333321E-2</v>
+        <f>AVERAGE(Data!B648:B743)/100</f>
+        <v>7.4447916666666669E-2</v>
       </c>
     </row>
   </sheetData>
